--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="COMPONENTES HARDWARE" sheetId="3" r:id="rId2"/>
+    <sheet name="COMPONENTES SOFWARE" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>N°</t>
   </si>
@@ -393,6 +395,47 @@
 5.5 - 7.0</t>
     </r>
   </si>
+  <si>
+    <t>DISPONIBILIDAD</t>
+  </si>
+  <si>
+    <t>INDICADORES</t>
+  </si>
+  <si>
+    <t>PUNTAJE</t>
+  </si>
+  <si>
+    <t>CARACTERÍSTICAS</t>
+  </si>
+  <si>
+    <t>RELEVANCIA
+DEMOSTRATIVA</t>
+  </si>
+  <si>
+    <t>VERSATILIDAD</t>
+  </si>
+  <si>
+    <t>FUNCIÓN</t>
+  </si>
+  <si>
+    <t>Control por PWM
+Control ON / OFF
+Control realimentado
+1 pin de lectura de datos analógicos
+1 pin de lectura de datos digitales</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor de …
+Bomba de …
+...
+Rango de trabajo:
+Conexiones:</t>
+  </si>
+  <si>
+    <t>DEPENDENCIA
+TECNOLÓGICA</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;S/. &quot;#,##0.00;[Red]&quot;S/. -&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -453,6 +496,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -474,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -512,53 +562,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,699 +1027,699 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="5.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="12.7109375" style="2" customWidth="1"/>
-    <col min="15" max="1025" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="1025" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
         <f>20*B3</f>
         <v>20</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f>28*B4</f>
         <v>28</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5">
         <f>11*B5</f>
         <v>11</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5">
         <f>15*B6</f>
         <v>15</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f>20*B7</f>
         <v>20</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5">
         <f>18*B8</f>
         <v>36</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5">
         <f>30*B9</f>
         <v>30</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="8">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="7">
         <f>40*B10</f>
         <v>40</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="8">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7">
         <f>28*B11</f>
         <v>28</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="8">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="7">
         <f>18*B12</f>
         <v>36</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="8">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="7">
         <f>12*B13</f>
         <v>12</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="6">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5">
         <f>13*B14</f>
         <v>13</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="8">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="7">
         <f>105*B15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11">
+      <c r="M15" s="9"/>
+      <c r="N15" s="10">
         <f>SUM(K3:K16)</f>
         <v>289</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <f>SUM(P3:P14)</f>
         <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f>80*B16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <f>SUM(K3:K12)</f>
         <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="6">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="6">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1626,75 +1737,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>54</v>
       </c>
     </row>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>N°</t>
   </si>
@@ -435,6 +435,15 @@
   <si>
     <t>DEPENDENCIA
 TECNOLÓGICA</t>
+  </si>
+  <si>
+    <t>MQ7</t>
+  </si>
+  <si>
+    <t>DS18B20</t>
+  </si>
+  <si>
+    <t>Bomba de agua</t>
   </si>
 </sst>
 </file>
@@ -644,23 +653,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,7 +1031,7 @@
   <dimension ref="A1:AMK35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1043,35 +1052,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1099,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1737,15 +1746,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G4"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1753,51 +1763,57 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="2:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
+    <row r="3" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -1808,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1823,10 +1839,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -1834,23 +1850,23 @@
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1867,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="COMPONENTES HARDWARE" sheetId="3" r:id="rId2"/>
-    <sheet name="COMPONENTES SOFWARE" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
+    <sheet name="Total components" sheetId="6" r:id="rId2"/>
+    <sheet name="Transductors and actuators" sheetId="3" r:id="rId3"/>
+    <sheet name="Environmental conditions" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>N°</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>ELEMENTO</t>
-  </si>
-  <si>
-    <t>CARACTERÍSTICCAS</t>
   </si>
   <si>
     <t>Dióxido de carbono</t>
@@ -396,54 +393,281 @@
     </r>
   </si>
   <si>
-    <t>DISPONIBILIDAD</t>
-  </si>
-  <si>
-    <t>INDICADORES</t>
-  </si>
-  <si>
-    <t>PUNTAJE</t>
-  </si>
-  <si>
-    <t>CARACTERÍSTICAS</t>
-  </si>
-  <si>
-    <t>RELEVANCIA
-DEMOSTRATIVA</t>
-  </si>
-  <si>
-    <t>VERSATILIDAD</t>
-  </si>
-  <si>
-    <t>FUNCIÓN</t>
-  </si>
-  <si>
-    <t>Control por PWM
-Control ON / OFF
-Control realimentado
-1 pin de lectura de datos analógicos
-1 pin de lectura de datos digitales</t>
+    <t>MQ7</t>
+  </si>
+  <si>
+    <t>SHT31</t>
+  </si>
+  <si>
+    <t>ESPECIFICACIONES TÉCNICAS</t>
   </si>
   <si>
     <t>Función:
-Sensor de …
-Bomba de …
-...
-Rango de trabajo:
-Conexiones:</t>
-  </si>
-  <si>
-    <t>DEPENDENCIA
-TECNOLÓGICA</t>
-  </si>
-  <si>
-    <t>MQ7</t>
-  </si>
-  <si>
-    <t>DS18B20</t>
-  </si>
-  <si>
-    <t>Bomba de agua</t>
+Sensor de humedad y temperatura
+Rangos de trabajo (presición):
+-40° a 125°C (0.2°C)
+0 a 100% RH (0.01 %RH)</t>
+  </si>
+  <si>
+    <t>CONEXIONES</t>
+  </si>
+  <si>
+    <t>MH-Z19</t>
+  </si>
+  <si>
+    <t>LED GROW</t>
+  </si>
+  <si>
+    <t>Función:
+Iluminación
+Proporción de colores:
+3 LEDs rojos por cada LED azul
+Espectro de luz azul: 460nm
+Espectro de luz roja: 640nm
+Potencia: 0.24W/LED</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor de Monóxido de Carbono
+Rangos de trabajo (presición):
+0 a 2000ppm (20ppm)
+Condiciones de trabajo:
+Precalentamiento de 3min
+Temperatura de -20 a 50°C
+Humedad de 0 a 95% HR</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor de Dióxido de Carbono
+Rangos de trabajo (presición):
+0 a 5000ppm (50ppm)
+Condiciones de trabajo:
+Precalentamiento de 3min
+Temperatura de 0 a 50°C
+Humedad de 0 a 95% HR</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor de pH
+Rangos de trabajo (presición):
+0 a 14 (0.5)</t>
+  </si>
+  <si>
+    <t>Kit TEC1-12706</t>
+  </si>
+  <si>
+    <t>Función:
+Regrigeración o calefacción
+Corriente de trabajo: hasta 6A
+Potencia nominal: 50 a 70W
+Temperatura de trabajo: -30ºC hasta 70ºC</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>SUSTITUIBILIDAD</t>
+  </si>
+  <si>
+    <t>ME2-O2</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor de Oxígeno
+Rangos de trabajo (presición):
+0% - 25%
+Condiciones de trabajo:
+Concentración medible &lt; 30%
+Sensibilidad de 0.1 a 0.3 mA
+Tiempo de respuesta &lt; 15s
+Temperatura de 20° a 50°C
+Humedad de 0 a 99% HR</t>
+  </si>
+  <si>
+    <t>SEN-DS18B20</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor acuático de temperatura
+Condiciones de trabajo:
+Rango de Trabajo (Precisión):
+-55 a 125℃ (0.5°C)
+Cubierta de Acero Inoxidable</t>
+  </si>
+  <si>
+    <t>Función:
+Bomba de agua, aceite o gasolina
+Condiciones de trabajo:
+Corriente máxima de 350mA
+Potencia de 4.8W
+Caudal máximo de 240L/H
+Columna de agua &lt; 3m
+Ruido &lt; 40dB
+Diseño sumergible
+Dimensiones de 38*36*25mm
+Temperatura de 0 a 60°C</t>
+  </si>
+  <si>
+    <t>COOLER FAN</t>
+  </si>
+  <si>
+    <t>Función:
+Ventilador
+Condiciones de trabajo:
+-40 a 70°C
+Velocidad nominal de 19000 RPM
+Flujo de aire de 25.6CFM</t>
+  </si>
+  <si>
+    <t>Soluciones nutritivas A y B</t>
+  </si>
+  <si>
+    <t>Bomba limpiaparabrisas 12VDC</t>
+  </si>
+  <si>
+    <t>LM35</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor analógico de temperatura
+Rango de trabajo (Presición):
+-55 a 150℃ (0.5°C)
+Pendiente de 10mV / ºC</t>
+  </si>
+  <si>
+    <t>WASHER
+PUMP</t>
+  </si>
+  <si>
+    <t>HC-SR04</t>
+  </si>
+  <si>
+    <t>Función:
+Sensor ultrasónico
+Rango de trabajo (Presición):
+2 a 450cm (3mm)
+Ángulo de apertura: 15°
+Corriente de trabajo de 15mA</t>
+  </si>
+  <si>
+    <t>SB-348A
+AIR PUMP</t>
+  </si>
+  <si>
+    <t>Bomba de aire 220VAC</t>
+  </si>
+  <si>
+    <t>INDICADOR</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Sustituibilidad</t>
+  </si>
+  <si>
+    <t>Conexiones</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>ESCALA</t>
+  </si>
+  <si>
+    <t>0 a 10</t>
+  </si>
+  <si>
+    <t>PESO</t>
+  </si>
+  <si>
+    <t>Grado de requerimientos necesitados por el elemento para ser añadido al sistema</t>
+  </si>
+  <si>
+    <t>Percepción personal cuantitativa del costo del elemento</t>
+  </si>
+  <si>
+    <t>Grado con que el elemento puede ser reemplazado por
+otro menos complejo con iguales fines demostrativos</t>
+  </si>
+  <si>
+    <t>COOLER
+FAN</t>
+  </si>
+  <si>
+    <t>LED
+GROW</t>
+  </si>
+  <si>
+    <t>NUTRIENTE</t>
+  </si>
+  <si>
+    <t>MDC PUMP</t>
+  </si>
+  <si>
+    <t>FACTORES</t>
+  </si>
+  <si>
+    <t>Kit Ph</t>
+  </si>
+  <si>
+    <t>WASHER PUMP</t>
+  </si>
+  <si>
+    <t>SB-348A AIR PUMP</t>
+  </si>
+  <si>
+    <t>ACT-HUM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Función:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Humidificador ultrasónico
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Condiciones de operación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Voltaje de Operación: 24V DC
+Consumo de corriente: 800mA
+Diseño sumergible</t>
+    </r>
+  </si>
+  <si>
+    <t>REQUERIMIENTO</t>
   </si>
 </sst>
 </file>
@@ -453,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;S/. &quot;#,##0.00;[Red]&quot;S/. -&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -512,6 +736,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -533,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -572,39 +803,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,17 +858,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,14 +867,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,7 +1251,7 @@
   <dimension ref="A1:AMK35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1052,35 +1272,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1319,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1746,211 +1966,879 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="26">
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>9</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>10</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="26">
+        <v>11</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="26">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="26">
+        <v>13</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="26">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="26">
+        <v>16</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="26">
+        <v>17</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="26">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="26">
+        <v>19</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="26">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <v>22</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="26">
+        <v>23</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="26">
+        <v>25</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
+        <v>27</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="26">
+        <v>28</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="26">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="26">
+        <v>30</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="26">
+        <v>31</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="26">
+        <v>32</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="26">
+        <v>33</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="26">
+        <v>34</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="26">
+        <v>35</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="26">
+        <v>36</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="26">
+        <v>37</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
+        <v>38</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="2:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7</v>
+      </c>
+      <c r="E4" s="17">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8">
+        <f xml:space="preserve"> (D4*3 + E4*2 + F4*1) / 6</f>
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="126" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <f xml:space="preserve"> (D5*3 + E5*2 + F5*1) / 6</f>
+        <v>8.8333333333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <f xml:space="preserve"> (D6*3 + E6*2 + F6*1) / 6</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="E7" s="8">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8">
+        <f xml:space="preserve"> (D7*3 + E7*2 + F7*1) / 6</f>
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <f xml:space="preserve"> (D8*3 + E8*2 + F8*1) / 6</f>
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
+        <f xml:space="preserve"> (D9*3 + E9*2 + F9*1) / 6</f>
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <f xml:space="preserve"> (D10*3 + E10*2 + F10*1) / 6</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <f xml:space="preserve"> (D11*3 + E11*2 + F11*1) / 6</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <f xml:space="preserve"> (D12*3 + E12*2 + F12*1) / 6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8">
+        <f xml:space="preserve"> (D13*3 + E13*2 + F13*1) / 6</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="126" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>68</v>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <f xml:space="preserve"> (D14*3 + E14*2 + F14*1) / 6</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <f xml:space="preserve"> (D15*3 + E15*2 + F15*1) / 6</f>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>7</v>
+      </c>
+      <c r="G16" s="8">
+        <f xml:space="preserve"> (D16*3 + E16*2 + F16*1) / 6</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <f xml:space="preserve"> (D17*3 + E17*2 + F17*1) / 6</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8">
+        <v>7</v>
+      </c>
+      <c r="G18" s="8">
+        <f xml:space="preserve"> (D18*3 + E18*2 + F18*1) / 6</f>
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8">
+        <f xml:space="preserve"> (D19*3 + E19*2 + F19*1) / 6</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+    <row r="5" spans="2:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="8" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>N°</t>
   </si>
@@ -668,6 +668,60 @@
   </si>
   <si>
     <t>REQUERIMIENTO</t>
+  </si>
+  <si>
+    <t>2 metros</t>
+  </si>
+  <si>
+    <t>2 unidades</t>
+  </si>
+  <si>
+    <t>1 unidad</t>
+  </si>
+  <si>
+    <t>2 unidad</t>
+  </si>
+  <si>
+    <t>1 unidades</t>
+  </si>
+  <si>
+    <t>DRV-L298N</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>Arduino Uno R3</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>MatLab</t>
+  </si>
+  <si>
+    <t>Fuente de poder 600 w</t>
+  </si>
+  <si>
+    <t>Bulma</t>
+  </si>
+  <si>
+    <t>Entorno para desarrollo de javascript</t>
+  </si>
+  <si>
+    <t>Framework CSS</t>
   </si>
 </sst>
 </file>
@@ -817,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,29 +915,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
@@ -899,6 +938,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,7 +1308,7 @@
   <dimension ref="A1:AMK35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1272,35 +1329,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1376,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1966,358 +2023,317 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E40"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="26">
+      <c r="D4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="26">
+      <c r="D5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C6" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="26">
+      <c r="D6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="26">
+      <c r="D7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
+      <c r="D8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
+      <c r="D9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="26">
+      <c r="D10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="26">
+      <c r="D11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C12" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
+      <c r="D12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
         <v>10</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="26">
+      <c r="C13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="26">
+      <c r="C14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="26">
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
+      <c r="C16" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="21">
         <v>14</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
+      <c r="C17" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
         <v>15</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
+      <c r="C18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="21">
         <v>16</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
-        <v>17</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
-        <v>18</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
-        <v>19</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
-        <v>20</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="21">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="21">
+        <v>2</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="26">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="21">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="26">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="21">
+        <v>4</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="26">
-        <v>24</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="26">
-        <v>25</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
-        <v>26</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="26">
-        <v>27</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="26">
-        <v>28</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="26">
-        <v>29</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="26">
-        <v>30</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="26">
-        <v>31</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="26">
-        <v>32</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
-        <v>33</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
-        <v>34</v>
-      </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
-        <v>35</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
-        <v>36</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
-        <v>37</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
-        <v>38</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B26" s="21">
+        <v>5</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2346,53 +2362,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>5</v>
       </c>
       <c r="F4" s="8">
         <v>7</v>
       </c>
       <c r="G4" s="8">
-        <f xml:space="preserve"> (D4*3 + E4*2 + F4*1) / 6</f>
+        <f t="shared" ref="G4:G19" si="0" xml:space="preserve"> (D4*3 + E4*2 + F4*1) / 6</f>
         <v>6.333333333333333</v>
       </c>
     </row>
@@ -2400,28 +2416,28 @@
       <c r="B5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="8">
         <v>9</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
       <c r="F5" s="8">
         <v>10</v>
       </c>
       <c r="G5" s="8">
-        <f xml:space="preserve"> (D5*3 + E5*2 + F5*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>8.8333333333333339</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="8">
@@ -2434,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="8">
-        <f xml:space="preserve"> (D6*3 + E6*2 + F6*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -2442,7 +2458,7 @@
       <c r="B7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="8">
@@ -2455,15 +2471,15 @@
         <v>10</v>
       </c>
       <c r="G7" s="8">
-        <f xml:space="preserve"> (D7*3 + E7*2 + F7*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="8">
@@ -2476,7 +2492,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="8">
-        <f xml:space="preserve"> (D8*3 + E8*2 + F8*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>6.833333333333333</v>
       </c>
     </row>
@@ -2484,7 +2500,7 @@
       <c r="B9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="8">
@@ -2497,15 +2513,15 @@
         <v>10</v>
       </c>
       <c r="G9" s="8">
-        <f xml:space="preserve"> (D9*3 + E9*2 + F9*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="8">
@@ -2518,15 +2534,15 @@
         <v>4</v>
       </c>
       <c r="G10" s="8">
-        <f xml:space="preserve"> (D10*3 + E10*2 + F10*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="8">
@@ -2539,15 +2555,15 @@
         <v>5</v>
       </c>
       <c r="G11" s="8">
-        <f xml:space="preserve"> (D11*3 + E11*2 + F11*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D12" s="8">
@@ -2560,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="8">
-        <f xml:space="preserve"> (D12*3 + E12*2 + F12*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2568,7 +2584,7 @@
       <c r="B13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="8">
@@ -2581,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="8">
-        <f xml:space="preserve"> (D13*3 + E13*2 + F13*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>6.166666666666667</v>
       </c>
     </row>
@@ -2589,7 +2605,7 @@
       <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="8">
@@ -2602,12 +2618,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="8">
-        <f xml:space="preserve"> (D14*3 + E14*2 + F14*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2623,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="8">
-        <f xml:space="preserve"> (D15*3 + E15*2 + F15*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -2631,7 +2647,7 @@
       <c r="B16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="8">
@@ -2644,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="8">
-        <f xml:space="preserve"> (D16*3 + E16*2 + F16*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -2652,7 +2668,7 @@
       <c r="B17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="8">
@@ -2665,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8">
-        <f xml:space="preserve"> (D17*3 + E17*2 + F17*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -2686,12 +2702,12 @@
         <v>7</v>
       </c>
       <c r="G18" s="8">
-        <f xml:space="preserve"> (D18*3 + E18*2 + F18*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2707,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="8">
-        <f xml:space="preserve"> (D19*3 + E19*2 + F19*1) / 6</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
@@ -2729,10 +2745,10 @@
       <c r="I22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="24" t="s">
         <v>92</v>
       </c>
       <c r="L22" s="8">
@@ -2743,10 +2759,10 @@
       <c r="I23" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K23" s="19"/>
+      <c r="K23" s="24"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
@@ -2755,10 +2771,10 @@
       <c r="I24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K24" s="19"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
   <si>
     <t>N°</t>
   </si>
@@ -415,9 +415,6 @@
     <t>MH-Z19</t>
   </si>
   <si>
-    <t>LED GROW</t>
-  </si>
-  <si>
     <t>Función:
 Iluminación
 Proporción de colores:
@@ -508,9 +505,6 @@
 Temperatura de 0 a 60°C</t>
   </si>
   <si>
-    <t>COOLER FAN</t>
-  </si>
-  <si>
     <t>Función:
 Ventilador
 Condiciones de trabajo:
@@ -609,9 +603,6 @@
   </si>
   <si>
     <t>Kit Ph</t>
-  </si>
-  <si>
-    <t>WASHER PUMP</t>
   </si>
   <si>
     <t>SB-348A AIR PUMP</t>
@@ -685,15 +676,9 @@
     <t>1 unidades</t>
   </si>
   <si>
-    <t>DRV-L298N</t>
-  </si>
-  <si>
     <t>Node.js</t>
   </si>
   <si>
-    <t>Arduino</t>
-  </si>
-  <si>
     <t>HARDWARE</t>
   </si>
   <si>
@@ -712,16 +697,160 @@
     <t>MatLab</t>
   </si>
   <si>
-    <t>Fuente de poder 600 w</t>
-  </si>
-  <si>
     <t>Bulma</t>
   </si>
   <si>
-    <t>Entorno para desarrollo de javascript</t>
-  </si>
-  <si>
-    <t>Framework CSS</t>
+    <t>Teknopor</t>
+  </si>
+  <si>
+    <t>Cartulina</t>
+  </si>
+  <si>
+    <t>Papel aluminio</t>
+  </si>
+  <si>
+    <t>Mangueras</t>
+  </si>
+  <si>
+    <t>Hielo</t>
+  </si>
+  <si>
+    <t>3 metros</t>
+  </si>
+  <si>
+    <t>3 kilogramos</t>
+  </si>
+  <si>
+    <t>15 metros del modelo comercial</t>
+  </si>
+  <si>
+    <t>6 planchas de 120 x 80 cm2</t>
+  </si>
+  <si>
+    <t>Fuente de poder de pc</t>
+  </si>
+  <si>
+    <t>Entorno de ejecución para JavaScript</t>
+  </si>
+  <si>
+    <t>Framework CSS open source</t>
+  </si>
+  <si>
+    <t>Arduino IDE</t>
+  </si>
+  <si>
+    <t>Entorno de desarrollo integrado para placas Arduino</t>
+  </si>
+  <si>
+    <t>Sistema operativo open source
+ basado en UNIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entorno para análisis iterativo y
+procesos de diseño</t>
+  </si>
+  <si>
+    <t>Estructura de perfiles
+de acero</t>
+  </si>
+  <si>
+    <t>Ángulos laminados de:
+25 cm de largo x 2
+90 cm de largo x 6
+80 cm de largo x 12</t>
+  </si>
+  <si>
+    <t>Cinta LED GROW</t>
+  </si>
+  <si>
+    <t>Bomba de Agua
+MDC-PUMP</t>
+  </si>
+  <si>
+    <t>Bomba peristáltica. Se usará para recircular la solución nutritiva</t>
+  </si>
+  <si>
+    <t>foxconn
+DC Brushless Fan</t>
+  </si>
+  <si>
+    <t>Sensor MQ7</t>
+  </si>
+  <si>
+    <t>La iluminación GROW emite luz apropiada para la fotosíntesis</t>
+  </si>
+  <si>
+    <t>Ventilador. Se usará para hacer agregar y recircular aire frío</t>
+  </si>
+  <si>
+    <t>Sensor de monóxido de carbono</t>
+  </si>
+  <si>
+    <t>Windshield
+Washer Pumps</t>
+  </si>
+  <si>
+    <t>Sensor ultrasónico. Se usará para medir el nivel de líquido</t>
+  </si>
+  <si>
+    <t>Bomba de aire. Se usará para proveer de aire fresco</t>
+  </si>
+  <si>
+    <t>Humidificador ultrasónico</t>
+  </si>
+  <si>
+    <t>Se usará para controlar la cinta LED GROW por PWM</t>
+  </si>
+  <si>
+    <t>Se usará para el control ON / OFF de 4 elementos</t>
+  </si>
+  <si>
+    <t>Se usará para el control ON / OFF de 2 elementos</t>
+  </si>
+  <si>
+    <t>Driver Puente H L298N
+DRV-L298N</t>
+  </si>
+  <si>
+    <t>Este elemento se usará para  recibir la salida del controlador y entregar una señal para manipular una bomba peristáltica</t>
+  </si>
+  <si>
+    <t>Bombas peristáticas. Se usarán para proveer de agua fresca y
+nutriente</t>
+  </si>
+  <si>
+    <t>Sensores de temperatura</t>
+  </si>
+  <si>
+    <t>Recibirá y entregará las señales de los sensores y control, respectivamente. Así como transmitir todos estos datos a la laptop</t>
+  </si>
+  <si>
+    <t>Se usará como servidor</t>
+  </si>
+  <si>
+    <t>Proporcionará la energía suficiente para el prototipo</t>
+  </si>
+  <si>
+    <t>Material seleccionado por sus propiedades adiabáticas para
+recubrir la estructura</t>
+  </si>
+  <si>
+    <t>Se usará para recubrir el teknopor por su parte exterior</t>
+  </si>
+  <si>
+    <t>Se usará para recubrir el teknopor por su parte interior para reflectar la luz</t>
+  </si>
+  <si>
+    <t>Se usará para proporcionarl al prototipo de una fuente de aire
+frío</t>
+  </si>
+  <si>
+    <t>Necesarias para las salidas de todas las bombas</t>
+  </si>
+  <si>
+    <t>Las dimensiones seleccionadas permiten cultivar una gran
+cantidad de tipos de cultivos en un área prudente, sin
+comprometer las capacidades de los ventiladores usados}</t>
   </si>
 </sst>
 </file>
@@ -942,6 +1071,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,9 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2023,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,16 +2163,16 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -2053,10 +2182,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -2064,108 +2193,126 @@
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>100</v>
+      <c r="C5" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="21">
         <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>103</v>
+      <c r="C8" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="21">
         <v>6</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>7</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>8</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
@@ -2175,9 +2322,11 @@
         <v>39</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
@@ -2187,9 +2336,11 @@
         <v>41</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
@@ -2199,138 +2350,238 @@
         <v>30</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>113</v>
+      <c r="C16" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>14</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="21">
         <v>15</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>16</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="20" t="s">
         <v>107</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="21">
+        <v>17</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="21">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="21">
-        <v>5</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="B26" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
+        <v>15</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>16</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="21">
+        <v>17</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <v>18</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="21">
+        <v>19</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -2341,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2362,26 +2613,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="27" t="s">
+      <c r="D2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="18" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="18" t="s">
-        <v>69</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>59</v>
@@ -2389,7 +2640,7 @@
       <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2417,7 +2668,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="8">
         <v>9</v>
@@ -2435,10 +2686,10 @@
     </row>
     <row r="6" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
@@ -2456,10 +2707,10 @@
     </row>
     <row r="7" spans="2:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8">
         <v>5</v>
@@ -2477,10 +2728,10 @@
     </row>
     <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="D8" s="8">
         <v>7</v>
@@ -2498,10 +2749,10 @@
     </row>
     <row r="9" spans="2:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
@@ -2519,10 +2770,10 @@
     </row>
     <row r="10" spans="2:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -2540,10 +2791,10 @@
     </row>
     <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D11" s="8">
         <v>8</v>
@@ -2561,10 +2812,10 @@
     </row>
     <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -2582,10 +2833,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="8">
         <v>10</v>
@@ -2606,7 +2857,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -2624,10 +2875,10 @@
     </row>
     <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -2645,10 +2896,10 @@
     </row>
     <row r="16" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -2666,10 +2917,10 @@
     </row>
     <row r="17" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -2687,10 +2938,10 @@
     </row>
     <row r="18" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
@@ -2708,10 +2959,10 @@
     </row>
     <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -2729,27 +2980,27 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I21" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="L22" s="8">
         <v>3</v>
@@ -2757,24 +3008,24 @@
     </row>
     <row r="23" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="K23" s="25"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I24" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="K24" s="25"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="167">
   <si>
     <t>N°</t>
   </si>
@@ -529,10 +529,6 @@
 Pendiente de 10mV / ºC</t>
   </si>
   <si>
-    <t>WASHER
-PUMP</t>
-  </si>
-  <si>
     <t>HC-SR04</t>
   </si>
   <si>
@@ -544,10 +540,6 @@
 Corriente de trabajo de 15mA</t>
   </si>
   <si>
-    <t>SB-348A
-AIR PUMP</t>
-  </si>
-  <si>
     <t>Bomba de aire 220VAC</t>
   </si>
   <si>
@@ -585,14 +577,6 @@
 otro menos complejo con iguales fines demostrativos</t>
   </si>
   <si>
-    <t>COOLER
-FAN</t>
-  </si>
-  <si>
-    <t>LED
-GROW</t>
-  </si>
-  <si>
     <t>NUTRIENTE</t>
   </si>
   <si>
@@ -603,9 +587,6 @@
   </si>
   <si>
     <t>Kit Ph</t>
-  </si>
-  <si>
-    <t>SB-348A AIR PUMP</t>
   </si>
   <si>
     <t>ACT-HUM</t>
@@ -721,136 +702,188 @@
     <t>3 kilogramos</t>
   </si>
   <si>
-    <t>15 metros del modelo comercial</t>
-  </si>
-  <si>
-    <t>6 planchas de 120 x 80 cm2</t>
-  </si>
-  <si>
-    <t>Fuente de poder de pc</t>
-  </si>
-  <si>
-    <t>Entorno de ejecución para JavaScript</t>
-  </si>
-  <si>
-    <t>Framework CSS open source</t>
-  </si>
-  <si>
     <t>Arduino IDE</t>
   </si>
   <si>
-    <t>Entorno de desarrollo integrado para placas Arduino</t>
-  </si>
-  <si>
-    <t>Sistema operativo open source
- basado en UNIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Entorno para análisis iterativo y
-procesos de diseño</t>
-  </si>
-  <si>
-    <t>Estructura de perfiles
-de acero</t>
-  </si>
-  <si>
-    <t>Ángulos laminados de:
+    <t>Cinta LED GROW</t>
+  </si>
+  <si>
+    <t>Bomba de Agua
+MDC-PUMP</t>
+  </si>
+  <si>
+    <t>foxconn
+DC Brushless Fan</t>
+  </si>
+  <si>
+    <t>Sensor MQ7</t>
+  </si>
+  <si>
+    <t>Windshield
+Washer Pumps</t>
+  </si>
+  <si>
+    <t>foxconn DC Brushless Fan</t>
+  </si>
+  <si>
+    <t>Windshield Washer Pump</t>
+  </si>
+  <si>
+    <t>Cinta LED
+GROW</t>
+  </si>
+  <si>
+    <t>SB-348A
+Air Pump</t>
+  </si>
+  <si>
+    <t>Entorno de desarrollo integrado para placas Arduino. Se usará la implementación del protocolo firmata.</t>
+  </si>
+  <si>
+    <t>Driver
+Mosfet IRF520</t>
+  </si>
+  <si>
+    <t>Módulo
+Relay 4CH 5VDC</t>
+  </si>
+  <si>
+    <t>Módulo
+Relay 2CH 5VDC</t>
+  </si>
+  <si>
+    <t>Driver Puente H
+DRV-L298N</t>
+  </si>
+  <si>
+    <t>Fuente de poder</t>
+  </si>
+  <si>
+    <t>Estructura de
+perfiles de acero</t>
+  </si>
+  <si>
+    <t>AIR PUMP
+SB-348A</t>
+  </si>
+  <si>
+    <t>15 metros</t>
+  </si>
+  <si>
+    <t>6 planchas
+(120 x 80 cm2)</t>
+  </si>
+  <si>
+    <t>Ángulos laminados:
 25 cm de largo x 2
 90 cm de largo x 6
 80 cm de largo x 12</t>
   </si>
   <si>
-    <t>Cinta LED GROW</t>
-  </si>
-  <si>
-    <t>Bomba de Agua
-MDC-PUMP</t>
-  </si>
-  <si>
-    <t>Bomba peristáltica. Se usará para recircular la solución nutritiva</t>
-  </si>
-  <si>
-    <t>foxconn
-DC Brushless Fan</t>
-  </si>
-  <si>
-    <t>Sensor MQ7</t>
-  </si>
-  <si>
-    <t>La iluminación GROW emite luz apropiada para la fotosíntesis</t>
-  </si>
-  <si>
-    <t>Ventilador. Se usará para hacer agregar y recircular aire frío</t>
-  </si>
-  <si>
-    <t>Sensor de monóxido de carbono</t>
-  </si>
-  <si>
-    <t>Windshield
-Washer Pumps</t>
-  </si>
-  <si>
-    <t>Sensor ultrasónico. Se usará para medir el nivel de líquido</t>
-  </si>
-  <si>
-    <t>Bomba de aire. Se usará para proveer de aire fresco</t>
-  </si>
-  <si>
-    <t>Humidificador ultrasónico</t>
-  </si>
-  <si>
-    <t>Se usará para controlar la cinta LED GROW por PWM</t>
-  </si>
-  <si>
-    <t>Se usará para el control ON / OFF de 4 elementos</t>
-  </si>
-  <si>
-    <t>Se usará para el control ON / OFF de 2 elementos</t>
-  </si>
-  <si>
-    <t>Driver Puente H L298N
-DRV-L298N</t>
-  </si>
-  <si>
-    <t>Este elemento se usará para  recibir la salida del controlador y entregar una señal para manipular una bomba peristáltica</t>
-  </si>
-  <si>
-    <t>Bombas peristáticas. Se usarán para proveer de agua fresca y
-nutriente</t>
-  </si>
-  <si>
-    <t>Sensores de temperatura</t>
-  </si>
-  <si>
-    <t>Recibirá y entregará las señales de los sensores y control, respectivamente. Así como transmitir todos estos datos a la laptop</t>
-  </si>
-  <si>
-    <t>Se usará como servidor</t>
-  </si>
-  <si>
-    <t>Proporcionará la energía suficiente para el prototipo</t>
-  </si>
-  <si>
-    <t>Material seleccionado por sus propiedades adiabáticas para
-recubrir la estructura</t>
-  </si>
-  <si>
-    <t>Se usará para recubrir el teknopor por su parte exterior</t>
-  </si>
-  <si>
-    <t>Se usará para recubrir el teknopor por su parte interior para reflectar la luz</t>
-  </si>
-  <si>
-    <t>Se usará para proporcionarl al prototipo de una fuente de aire
-frío</t>
-  </si>
-  <si>
-    <t>Necesarias para las salidas de todas las bombas</t>
-  </si>
-  <si>
-    <t>Las dimensiones seleccionadas permiten cultivar una gran
-cantidad de tipos de cultivos en un área prudente, sin
-comprometer las capacidades de los ventiladores usados}</t>
+    <t>La iluminación GROW emite luz
+apropiada para la fotosíntesis.</t>
+  </si>
+  <si>
+    <t>Bomba peristáltica. Se usará para
+recircular la solución nutritiva.</t>
+  </si>
+  <si>
+    <t>Ventiladores. Se usarán para
+agregar y recircular aire frío.</t>
+  </si>
+  <si>
+    <t>Sensor de monóxido de carbono.</t>
+  </si>
+  <si>
+    <t>Bombas peristáticas. Se usarán para
+proveer de agua fresca y nutriente.</t>
+  </si>
+  <si>
+    <t>Sensores de temperatura.</t>
+  </si>
+  <si>
+    <t>Sensor ultrasónico. Se usará
+para medir el nivel de líquido.</t>
+  </si>
+  <si>
+    <t>Bomba de aire. Se usará
+para proveer de aire fresco.</t>
+  </si>
+  <si>
+    <t>Humidificador ultrasónico.</t>
+  </si>
+  <si>
+    <t>Se usará para controlar
+la cinta LED GROW por PWM.</t>
+  </si>
+  <si>
+    <t>Se usará para el control
+ON / OFF de 4 elementos.</t>
+  </si>
+  <si>
+    <t>Se usará para el control
+ON / OFF de 2 elementos.</t>
+  </si>
+  <si>
+    <t>Este elemento se usará para
+recibir la salida del controlador
+y entregar una señal para
+manipular una bomba peristáltica.</t>
+  </si>
+  <si>
+    <t>Recibirá y entregará las señales
+de los sensores y control,
+respectivamente. Así como transmitir
+todos estos datos a la laptop.</t>
+  </si>
+  <si>
+    <t>Se usará como servidor.</t>
+  </si>
+  <si>
+    <t>Proporcionará la energía suficiente
+para el prototipo.</t>
+  </si>
+  <si>
+    <t>Las dimensiones seleccionadas
+permiten cultivar una gran cantidad
+de tipos de cultivos en un área
+prudente, sin comprometer las
+capacidades de los ventiladores
+usados.</t>
+  </si>
+  <si>
+    <t>Material seleccionado por sus
+propiedades adiabáticas para
+recubrir la estructura.</t>
+  </si>
+  <si>
+    <t>Se usará para recubrir el teknopor
+por su parte exterior.</t>
+  </si>
+  <si>
+    <t>Se usará para recubrir el teknopor
+por su parte interior para reflectar
+la luz.</t>
+  </si>
+  <si>
+    <t>Se usará para proporcionarl al
+prototipo de una fuente de aire frío.</t>
+  </si>
+  <si>
+    <t>Necesarias para las salidas de todas
+las bombas.</t>
+  </si>
+  <si>
+    <t>Entorno de ejecución para JavaScript que ofrece una gran cantidad de opciones para desarrollo de software.</t>
+  </si>
+  <si>
+    <t>Framework CSS open source usado para proporcionar los estilos CSS a la web del proyecto.</t>
+  </si>
+  <si>
+    <t>Sistema operativo open source basado en UNIX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entorno para análisis iterativo y procesos de diseño. Se usará para hallar parámetros de control.</t>
   </si>
 </sst>
 </file>
@@ -947,7 +980,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -996,11 +1029,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,6 +1144,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2152,23 +2226,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E32"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2182,23 +2256,23 @@
         <v>42</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2207,13 +2281,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>138</v>
+        <v>104</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2221,13 +2295,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -2235,13 +2309,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -2249,13 +2323,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -2266,38 +2340,38 @@
         <v>77</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>7</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>101</v>
+      <c r="C11" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>146</v>
+        <v>102</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -2305,83 +2379,83 @@
         <v>9</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="21">
         <v>10</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>39</v>
+      <c r="C13" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="21">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>41</v>
+      <c r="C14" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="21">
         <v>12</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>30</v>
+      <c r="C15" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="21">
         <v>13</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>14</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -2389,80 +2463,80 @@
         <v>15</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="21">
         <v>16</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="21">
         <v>17</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="21">
         <v>18</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="21">
         <v>19</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>126</v>
+        <v>114</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
         <v>20</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>160</v>
@@ -2473,32 +2547,32 @@
         <v>21</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E24" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
         <v>22</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -2511,77 +2585,82 @@
       <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
         <v>15</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>16</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
         <v>17</v>
       </c>
       <c r="C30" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
         <v>18</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
         <v>19</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="21"/>
-    </row>
+        <v>111</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -2592,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2699,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
@@ -2686,7 +2765,7 @@
     </row>
     <row r="6" spans="2:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>61</v>
@@ -2707,7 +2786,7 @@
     </row>
     <row r="7" spans="2:7" ht="63" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>64</v>
@@ -2770,7 +2849,7 @@
     </row>
     <row r="10" spans="2:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>73</v>
@@ -2812,7 +2891,7 @@
     </row>
     <row r="12" spans="2:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>74</v>
@@ -2833,7 +2912,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>75</v>
@@ -2875,7 +2954,7 @@
     </row>
     <row r="15" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>76</v>
@@ -2917,10 +2996,10 @@
     </row>
     <row r="17" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -2938,10 +3017,10 @@
     </row>
     <row r="18" spans="2:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D18" s="8">
         <v>2</v>
@@ -2959,10 +3038,10 @@
     </row>
     <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -2980,27 +3059,27 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I21" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L22" s="8">
         <v>3</v>
@@ -3008,10 +3087,10 @@
     </row>
     <row r="23" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="8">
@@ -3020,10 +3099,10 @@
     </row>
     <row r="24" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="I24" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="8">

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,7 @@
     <sheet name="Environmental conditions" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1130,9 +1126,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,21 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,7 +2224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D32" sqref="B2:E32"/>
     </sheetView>
   </sheetViews>
@@ -2241,12 +2237,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -2571,12 +2567,12 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -2585,10 +2581,10 @@
       <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -2597,10 +2593,10 @@
       <c r="C28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
@@ -2609,10 +2605,10 @@
       <c r="C29" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="30"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
@@ -2621,10 +2617,10 @@
       <c r="C30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -2633,10 +2629,10 @@
       <c r="C31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
@@ -2645,10 +2641,10 @@
       <c r="C32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2671,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2692,24 +2688,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="33" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
@@ -2719,7 +2715,7 @@
       <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -3078,7 +3074,7 @@
       <c r="J22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="30" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="8">
@@ -3092,7 +3088,7 @@
       <c r="J23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="25"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
@@ -3104,7 +3100,7 @@
       <c r="J24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="25"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Total components" sheetId="6" r:id="rId2"/>
-    <sheet name="Transductors and actuators" sheetId="3" r:id="rId3"/>
-    <sheet name="Environmental conditions" sheetId="2" r:id="rId4"/>
+    <sheet name="Classes" sheetId="7" r:id="rId3"/>
+    <sheet name="Transductors and actuators" sheetId="3" r:id="rId4"/>
+    <sheet name="Environmental conditions" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="184">
   <si>
     <t>N°</t>
   </si>
@@ -880,6 +880,57 @@
   </si>
   <si>
     <t xml:space="preserve"> Entorno para análisis iterativo y procesos de diseño. Se usará para hallar parámetros de control.</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Thermometer</t>
+  </si>
+  <si>
+    <t>Proximity</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Conexión y control del Arduino por el puerto serie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipulación de un driver de motor conectado al Arduino. </t>
+  </si>
+  <si>
+    <t>Manipulación de un led conectado al Arduino.</t>
+  </si>
+  <si>
+    <t>Manipulación de un relay conectado al Arduino.</t>
+  </si>
+  <si>
+    <t>Otorgamiento a cualquier pin del Arduino de una específicación.</t>
+  </si>
+  <si>
+    <t>Lectura de los datos de un sensor de proximidad conectado al Arduino.</t>
+  </si>
+  <si>
+    <t>Lectura de los datos de un sensor de temperatura conectado al Arduino.</t>
+  </si>
+  <si>
+    <t>Lectura de los datos de un sensor analógico o digital conectado al Arduino.</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,6 +1174,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1155,6 +1212,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,35 +1588,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1575,7 +1635,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2224,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D32" sqref="B2:E32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2237,12 +2297,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -2567,12 +2627,12 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -2581,10 +2641,10 @@
       <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="26"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -2593,10 +2653,10 @@
       <c r="C28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
@@ -2605,10 +2665,10 @@
       <c r="C29" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="29"/>
+      <c r="E29" s="31"/>
     </row>
     <row r="30" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
@@ -2617,10 +2677,10 @@
       <c r="C30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -2629,10 +2689,10 @@
       <c r="C31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
@@ -2641,10 +2701,10 @@
       <c r="C32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2664,6 +2724,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="36"/>
+    <col min="2" max="2" width="13.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B3:C10">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L24"/>
   <sheetViews>
@@ -2688,24 +2845,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
@@ -2715,7 +2872,7 @@
       <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -3074,7 +3231,7 @@
       <c r="J22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="32" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="8">
@@ -3088,7 +3245,7 @@
       <c r="J23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="30"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
@@ -3100,7 +3257,7 @@
       <c r="J24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>
@@ -3118,7 +3275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F7"/>
   <sheetViews>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Total components" sheetId="6" r:id="rId2"/>
-    <sheet name="Classes" sheetId="7" r:id="rId3"/>
+    <sheet name="CAPÍTULO I" sheetId="7" r:id="rId3"/>
     <sheet name="Transductors and actuators" sheetId="3" r:id="rId4"/>
     <sheet name="Environmental conditions" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="204">
   <si>
     <t>N°</t>
   </si>
@@ -931,6 +931,83 @@
   </si>
   <si>
     <t>Lectura de los datos de un sensor analógico o digital conectado al Arduino.</t>
+  </si>
+  <si>
+    <t>ENTIDAD</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Conceptualiza a cada sistema doméstico de cultivo agrícola.
+Atributos:
+id: identificador incremental por defecto
+uuid: identificador aleatorio legible 
+name: nombre del tipo de cultivo
+username: nombre del administrador
+hostname: nombre del servidor
+pid: identificador de proceso
+connected: estado de conexión
+createdAt: fecha de creación
+updateAt: fecha actual</t>
+  </si>
+  <si>
+    <t>Conceptualiza a cada condición ambiental que puede transmitir el sistema.
+Atributos:
+id: identificador incremental por defecto
+plantId: identificador de la planta
+type: nombre de la condición ambiental
+value: valor de la condición ambiental
+createdAt: fecha de creación
+updateAt: fecha de actualización</t>
+  </si>
+  <si>
+    <t>ARCHIVO</t>
+  </si>
+  <si>
+    <t>db.js</t>
+  </si>
+  <si>
+    <t>index.js</t>
+  </si>
+  <si>
+    <t>setup.js</t>
+  </si>
+  <si>
+    <t>Crea un objeto Sequelize y lo entrega con una configuración predeterminada.</t>
+  </si>
+  <si>
+    <t>Entrega un objeto que posee métodos que permiten hacer distintas operaciones sobre el modelo Plant.</t>
+  </si>
+  <si>
+    <t>Entrega un objeto que posee métodos que permiten hacer distintas operaciones sobre el modelo Tag.</t>
+  </si>
+  <si>
+    <t>…/lib/plant.js</t>
+  </si>
+  <si>
+    <t>…/lib/tag.js</t>
+  </si>
+  <si>
+    <t>…/models/plant.js</t>
+  </si>
+  <si>
+    <t>…/models/tag.js</t>
+  </si>
+  <si>
+    <t>Define un modelo Plant en la base de datos.</t>
+  </si>
+  <si>
+    <t>Define un modelo Tag en la base de datos.</t>
+  </si>
+  <si>
+    <t>Configura la base de datos y entrega los objetos Plant y Tag de acuerdo al modelamiento.</t>
+  </si>
+  <si>
+    <t>Limpiara la base de datos a pedido del usuario manteniendo la configuración y el modelo.</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,6 +1257,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,9 +1301,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1588,35 +1674,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1721,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2297,12 +2383,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -2627,12 +2713,12 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -2641,10 +2727,10 @@
       <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -2653,10 +2739,10 @@
       <c r="C28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
@@ -2665,10 +2751,10 @@
       <c r="C29" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="31"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
@@ -2677,10 +2763,10 @@
       <c r="C30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -2689,10 +2775,10 @@
       <c r="C31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="26"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
@@ -2701,10 +2787,10 @@
       <c r="C32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="26"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2725,18 +2811,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="36"/>
-    <col min="2" max="2" width="13.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="11.42578125" style="28"/>
+    <col min="2" max="2" width="16.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -2809,6 +2895,94 @@
       </c>
       <c r="C10" s="24" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2845,24 +3019,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="39" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
@@ -2872,7 +3046,7 @@
       <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -3231,7 +3405,7 @@
       <c r="J22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="36" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="8">
@@ -3245,7 +3419,7 @@
       <c r="J23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="32"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
@@ -3257,7 +3431,7 @@
       <c r="J24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="32"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="208">
   <si>
     <t>N°</t>
   </si>
@@ -998,16 +998,90 @@
     <t>…/models/tag.js</t>
   </si>
   <si>
-    <t>Define un modelo Plant en la base de datos.</t>
-  </si>
-  <si>
-    <t>Define un modelo Tag en la base de datos.</t>
-  </si>
-  <si>
     <t>Configura la base de datos y entrega los objetos Plant y Tag de acuerdo al modelamiento.</t>
   </si>
   <si>
     <t>Limpiara la base de datos a pedido del usuario manteniendo la configuración y el modelo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Define la entidad Tag en la base de datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Métodos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+create: crea la entidad Tag para una entidad Tag
+findByAgentUuid: muestra la entidad Plant a la que pertenece la entidad Tag.
+findByTypeAgentUuid: muestra la entidad Tag por tipo y el Uuid de Plant</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Define la entidad Plant en la base de datos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Métodos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+createOrUpdate: crea o actualiza a la entidad Plant
+findById: muestra la entidad Plant con un Id específico
+findByUuid: muestra la entidad Plant con un Uuid específico
+findAll: muestra todas las entidades Plant
+findConnected: muestra las entidades Plant con connected: true
+findByUsername: muestra las entidades Plant con un Username específico</t>
+    </r>
+  </si>
+  <si>
+    <t>server.js</t>
+  </si>
+  <si>
+    <t>utils.js</t>
+  </si>
+  <si>
+    <t>Gestiona distintos eventos (mensajes) entre el servidor MQTT y los clientes (Entidades Plant)
+Eventos:
+'ready': Conexión a la base de datos cuando el servidor esta listo, obteniendo las entidades Plant y Tag
+'clientConnected': Guarda el Id de la entidad Plant.
+'clientDisconnected': Excluye de la lista a la entidad Plant.
+'agent/disconnected': Permite hacer debug
+'published': Gestiona los eventos agent/disconnected y agent/message
+'agent/message': Crea o actualiza el estado de las entidades Plant y Tag</t>
+  </si>
+  <si>
+    <t>Una función que parsea los mensajes para darles formato JSON si lo necesitan.</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,6 +1343,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,6 +1384,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,35 +1763,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1721,7 +1810,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="29"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2383,12 +2472,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -2713,12 +2802,12 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -2727,10 +2816,10 @@
       <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="28" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -2739,10 +2828,10 @@
       <c r="C28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
@@ -2751,10 +2840,10 @@
       <c r="C29" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
@@ -2763,10 +2852,10 @@
       <c r="C30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="33"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -2775,10 +2864,10 @@
       <c r="C31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="33"/>
     </row>
     <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
@@ -2787,10 +2876,10 @@
       <c r="C32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="30"/>
+      <c r="E32" s="33"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2811,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,7 +3002,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
         <v>185</v>
       </c>
@@ -2933,7 +3022,7 @@
       <c r="B17" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="43" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2941,7 +3030,7 @@
       <c r="B18" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="43" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2949,40 +3038,64 @@
       <c r="B19" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="43" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>201</v>
+      <c r="C21" s="44" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>202</v>
+      <c r="C22" s="43" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>203</v>
+      <c r="C23" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +3112,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3019,24 +3132,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="39" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="42" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
@@ -3046,7 +3159,7 @@
       <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -3405,7 +3518,7 @@
       <c r="J22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="39" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="8">
@@ -3419,7 +3532,7 @@
       <c r="J23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="36"/>
+      <c r="K23" s="39"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
@@ -3431,7 +3544,7 @@
       <c r="J24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="36"/>
+      <c r="K24" s="39"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>

--- a/raphi-paper/design.xlsx
+++ b/raphi-paper/design.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="220">
   <si>
     <t>N°</t>
   </si>
@@ -1071,17 +1071,120 @@
     <t>utils.js</t>
   </si>
   <si>
-    <t>Gestiona distintos eventos (mensajes) entre el servidor MQTT y los clientes (Entidades Plant)
-Eventos:
+    <t>Una función que parsea los mensajes para darles formato JSON si lo necesitan.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gestiona distintos eventos (mensajes) entre el servidor MQTT y los clientes (Entidades Plant)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Eventos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 'ready': Conexión a la base de datos cuando el servidor esta listo, obteniendo las entidades Plant y Tag
 'clientConnected': Guarda el Id de la entidad Plant.
 'clientDisconnected': Excluye de la lista a la entidad Plant.
 'agent/disconnected': Permite hacer debug
 'published': Gestiona los eventos agent/disconnected y agent/message
 'agent/message': Crea o actualiza el estado de las entidades Plant y Tag</t>
-  </si>
-  <si>
-    <t>Una función que parsea los mensajes para darles formato JSON si lo necesitan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Permite crear un objeto que envíe eventos hacia el servidor MQTT.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Métodos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+addMetric: agrega una entidad Tag a su entidad Plant.
+removeMetric: borra una entidad Tag de su entidad Plant.
+connect: se suscribe a los temas de los eventos del servidor MQTT para recibir mensajes de otros clientes, y envía un mensaje cada cierto tiempo con información completa de las entidades Plant y Tag.
+disconnect: desconecta el cliente, termina el envió de mensajes y las suscripciones.</t>
+    </r>
+  </si>
+  <si>
+    <t>api.js</t>
+  </si>
+  <si>
+    <t>auth.js</t>
+  </si>
+  <si>
+    <t>Permite definir las rutas (Endpoints) de las peticiones a travès de una capa de seguridad.
+Endpoints:
+'*': Conexiòn a la base de datos para recibir las entidades Plant y Tag.
+'/plants': Entrega de las todas o una de las entidades Plant, dependiendo de los permisos del usuario.
+'/plant/:uuid': Entrega de la entidad Plant con un Uuid especìfico.
+'/tags/:uuid': Entrega de las entidades Tag de la entidad Plant con un Uuid especìfico.
+'/tags/:uuid/:type': Entrega de las entidades Tag con un Type especìfico,de la entidad Plant con un Uuid especìfico.</t>
+  </si>
+  <si>
+    <t>implementaciòn del servidor HTTP de la api.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Funciòn que permite implementar una capa de seguridad bajo el stàndard JSON Web Token por medio de la librerìa para Node.js: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>jsonwebtoken.</t>
+    </r>
+  </si>
+  <si>
+    <t>config.js</t>
+  </si>
+  <si>
+    <t>proxy.js</t>
+  </si>
+  <si>
+    <t>Contenedoor de la ruta del servidor de la API.</t>
+  </si>
+  <si>
+    <t>Define rutas (las mismas de la API) y el cuerpo de la solicitud para comunicarse con la API de forma indirecta.</t>
+  </si>
+  <si>
+    <t>Implementa el servidor web, la comunicaciòn en tiempo real con websockets, el uso de una entidad Plant con Jhonny-Five para comunicarse con el Arduino y el envìo de los valores de las condiciones ambientales para ser vistos en la interfaz gràfica.</t>
+  </si>
+  <si>
+    <t>Funciòn que toma un mensaje de un EventEmitter de una entidad Plant y lo transforma a un mensaje màs limpio. Toma los eventos de la entidad Plant y los envìa al objeto. Socket.</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,6 +1455,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,12 +1511,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,35 +1884,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1931,7 @@
       <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2472,12 +2593,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -2802,12 +2923,12 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
@@ -2816,10 +2937,10 @@
       <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
@@ -2828,10 +2949,10 @@
       <c r="C28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
@@ -2840,10 +2961,10 @@
       <c r="C29" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
@@ -2852,10 +2973,10 @@
       <c r="C30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
@@ -2864,10 +2985,10 @@
       <c r="C31" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E31" s="33"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
@@ -2876,10 +2997,10 @@
       <c r="C32" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2900,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C27"/>
+  <dimension ref="B2:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3143,7 @@
       <c r="B17" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="35" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3030,7 +3151,7 @@
       <c r="B18" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="35" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3038,7 +3159,7 @@
       <c r="B19" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="35" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3046,7 +3167,7 @@
       <c r="B20" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="36" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3054,7 +3175,7 @@
       <c r="B21" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="36" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3062,7 +3183,7 @@
       <c r="B22" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="35" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3070,7 +3191,7 @@
       <c r="B23" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="35" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3087,7 +3208,7 @@
         <v>204</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -3095,7 +3216,103 @@
         <v>205</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3132,24 +3349,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="42" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="11" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="18" t="s">
         <v>68</v>
       </c>
@@ -3159,7 +3376,7 @@
       <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="42"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -3518,7 +3735,7 @@
       <c r="J22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="47" t="s">
         <v>88</v>
       </c>
       <c r="L22" s="8">
@@ -3532,7 +3749,7 @@
       <c r="J23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="39"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="8">
         <v>2</v>
       </c>
@@ -3544,7 +3761,7 @@
       <c r="J24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="39"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="8">
         <v>1</v>
       </c>
